--- a/output_analysis/START_4_SEC_4.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_4.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
@@ -434,235 +434,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1 5 6 76 286</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2 18 169</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" t="n">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9 33 45 51 98</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3 194</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8 11 16 54 59 276</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12 13 28</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>118</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4 10 14</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17 19 233</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4 127</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="E3" t="n">
-        <v>81</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5 21 26 130 197 246</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101</v>
+      </c>
+      <c r="E9" t="n">
         <v>100</v>
       </c>
-      <c r="G3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2 8 23 44 172</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>157</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98</v>
-      </c>
-      <c r="G4" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13 18 20 80 99</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>98</v>
-      </c>
-      <c r="E5" t="n">
-        <v>126</v>
-      </c>
-      <c r="F5" t="n">
-        <v>98</v>
-      </c>
-      <c r="G5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3 9 43</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>98</v>
-      </c>
-      <c r="E6" t="n">
-        <v>113</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98</v>
-      </c>
-      <c r="G6" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11 21 29 34</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>102</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7 19</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>95</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12 15 45 55 72</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>102</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
